--- a/maps/um_cor_sim.xlsx
+++ b/maps/um_cor_sim.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="15">
   <si>
     <t xml:space="preserve">void</t>
   </si>
@@ -54,6 +54,18 @@
   <si>
     <t xml:space="preserve">chao4</t>
   </si>
+  <si>
+    <t xml:space="preserve">tocha_par_hor_torta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passagem_secreta_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tocha_par_hor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porta_madeira_ch4</t>
+  </si>
 </sst>
 </file>
 
@@ -62,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,8 +112,21 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,7 +142,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3838"/>
       </patternFill>
     </fill>
     <fill>
@@ -142,6 +167,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B277D"/>
         <bgColor rgb="FF660066"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3838"/>
+        <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,7 +222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,6 +271,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,7 +315,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -274,14 +333,14 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF4000"/>
@@ -307,11 +366,11 @@
   </sheetPr>
   <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="56.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="1" style="1" width="10.19"/>
   </cols>
@@ -1250,26 +1309,26 @@
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>8</v>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>8</v>
@@ -1469,26 +1528,26 @@
       <c r="L13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>8</v>
+      <c r="M13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>8</v>

--- a/maps/um_cor_sim.xlsx
+++ b/maps/um_cor_sim.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="18">
   <si>
     <t xml:space="preserve">void</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">chao4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the_oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altar_sangue_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altar_sangue_2</t>
   </si>
   <si>
     <t xml:space="preserve">tocha_par_hor_torta</t>
@@ -117,6 +126,7 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -126,7 +136,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +177,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B277D"/>
         <bgColor rgb="FF660066"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -222,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,6 +279,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,7 +291,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,11 +299,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,10 +387,10 @@
   <dimension ref="A1:BE28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="1" style="1" width="10.19"/>
   </cols>
@@ -793,8 +813,8 @@
       <c r="O5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>10</v>
+      <c r="P5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>10</v>
@@ -808,11 +828,11 @@
       <c r="T5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -820,23 +840,23 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="4"/>
     </row>
@@ -905,7 +925,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -913,24 +933,24 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
       <c r="BE6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -943,11 +963,11 @@
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>10</v>
@@ -998,7 +1018,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -1006,24 +1026,24 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
       <c r="BE7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1091,7 +1111,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -1100,23 +1120,23 @@
       <c r="AE8" s="3"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
       <c r="AX8" s="4"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
       <c r="BE8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1184,7 +1204,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -1204,12 +1224,12 @@
       <c r="AV9" s="4"/>
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="11"/>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="11"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
       <c r="BE9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1277,7 +1297,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1297,12 +1317,12 @@
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
       <c r="BE10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1315,14 +1335,14 @@
       <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>13</v>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>5</v>
@@ -1370,7 +1390,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -1390,12 +1410,12 @@
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="11"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
       <c r="BE11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1463,7 +1483,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -1483,12 +1503,12 @@
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="11"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
       <c r="BE12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1534,14 +1554,14 @@
       <c r="N13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>13</v>
+      <c r="O13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>5</v>
@@ -1556,7 +1576,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -1577,11 +1597,11 @@
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
       <c r="BE13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1649,7 +1669,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -1658,23 +1678,23 @@
       <c r="AE14" s="3"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="11"/>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
-      <c r="BB14" s="11"/>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="11"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
       <c r="BE14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1742,7 +1762,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -1750,24 +1770,24 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="11"/>
-      <c r="BB15" s="11"/>
-      <c r="BC15" s="11"/>
-      <c r="BD15" s="11"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
       <c r="BE15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1835,7 +1855,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -1846,21 +1866,21 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
-      <c r="AP16" s="11"/>
+      <c r="AP16" s="12"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
-      <c r="AT16" s="11"/>
+      <c r="AT16" s="12"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="11"/>
-      <c r="BB16" s="11"/>
-      <c r="BC16" s="11"/>
-      <c r="BD16" s="11"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
       <c r="BE16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1924,11 +1944,11 @@
       <c r="T17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -1936,24 +1956,24 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
       <c r="AR17" s="4"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
       <c r="AX17" s="4"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
       <c r="BE17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2029,24 +2049,24 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
       <c r="AX18" s="4"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
       <c r="BE18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2122,24 +2142,24 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
       <c r="AR19" s="4"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
       <c r="AX19" s="4"/>
-      <c r="AY19" s="11"/>
+      <c r="AY19" s="12"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
       <c r="BC19" s="4"/>
-      <c r="BD19" s="11"/>
+      <c r="BD19" s="12"/>
       <c r="BE19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2239,14 +2259,14 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2272,14 +2292,14 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>

--- a/maps/um_cor_sim.xlsx
+++ b/maps/um_cor_sim.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="25">
   <si>
     <t xml:space="preserve">void</t>
   </si>
@@ -73,7 +73,28 @@
     <t xml:space="preserve">tocha_par_hor</t>
   </si>
   <si>
-    <t xml:space="preserve">porta_madeira_ch4</t>
+    <t xml:space="preserve">teleport_ch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teleport_machine_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teleport_machine_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teleport_machine_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teleport_machine_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teleport_machine_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teleport_machine_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teleport_crystal_ch4</t>
   </si>
 </sst>
 </file>
@@ -83,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,15 +149,8 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,12 +209,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3838"/>
         <bgColor rgb="FFFF4000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA6"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -303,7 +311,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -353,7 +361,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFFA6"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -386,8 +394,8 @@
   </sheetPr>
   <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1557,8 +1565,8 @@
       <c r="O13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>17</v>
+      <c r="P13" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="Q13" s="15" t="s">
         <v>16</v>
@@ -1608,8 +1616,8 @@
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>10</v>
@@ -1791,11 +1799,11 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>10</v>
+      <c r="A16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1884,11 +1892,11 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>10</v>
+      <c r="A17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
@@ -1977,11 +1985,11 @@
       <c r="BE17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>10</v>
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>10</v>
@@ -2115,8 +2123,8 @@
       <c r="O19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>10</v>
+      <c r="P19" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>10</v>
